--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\posprojectb112\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>akshara</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pointofsale</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -344,15 +353,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -36,6 +37,12 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -355,7 +362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -382,4 +391,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>